--- a/plots/plot-depth-discontinuity-mask.xlsx
+++ b/plots/plot-depth-discontinuity-mask.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjohn/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjohn/git/thesis/disparity-thesis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="32300" windowHeight="19140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="mean_results1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/bjohn/Desktop/datasets/cambridge/01-book/eval/mean_results.csv" tab="0" semicolon="1">
+    <textPr fileType="mac" sourceFile="/Users/bjohn/Desktop/datasets/cambridge/01-book/eval/mean_results.csv" tab="0" semicolon="1">
       <textFields count="22">
         <textField/>
         <textField/>
@@ -86,12 +86,6 @@
     <t>pbmpAll1</t>
   </si>
   <si>
-    <t>pbmpDisc1</t>
-  </si>
-  <si>
-    <t>pbmpNoc1</t>
-  </si>
-  <si>
     <t>pbmpTex1</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>pbmpSal4</t>
+  </si>
+  <si>
+    <t>PBMP_disc,1px</t>
+  </si>
+  <si>
+    <t>PBMP_noc,1px</t>
   </si>
 </sst>
 </file>
@@ -206,7 +206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pbmpDisc1</c:v>
+                  <c:v>PBMP_disc,1px</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -273,6 +273,82 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PBMP_noc,1px</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16.5959707317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.9794414634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.30603536585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.5498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.29723121951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.73642463415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.32306682927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.3510780488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.92715073171</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.6084341463</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.72121487805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.0668441463</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.65458878049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -282,16 +358,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2088202928"/>
-        <c:axId val="-2132394304"/>
+        <c:axId val="-2077063664"/>
+        <c:axId val="-2077060496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088202928"/>
+        <c:axId val="-2077063664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -314,7 +446,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -329,7 +461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2132394304"/>
+        <c:crossAx val="-2077060496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -337,7 +469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132394304"/>
+        <c:axId val="-2077060496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -357,6 +489,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PBMP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -372,7 +560,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -387,7 +575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088202928"/>
+        <c:crossAx val="-2077063664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -399,6 +587,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -423,7 +643,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -997,15 +1217,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1297,7 +1517,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1329,46 +1549,46 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
